--- a/doc/image2.xlsx
+++ b/doc/image2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B045799-C6C1-497F-B2B0-E911A5C8AE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE880E3-085D-4C54-AB0F-6D4F61CF1E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="352">
   <si>
     <t>00000000</t>
   </si>
@@ -1074,6 +1074,18 @@
   </si>
   <si>
     <t>ff ff ff 0f - EOC</t>
+  </si>
+  <si>
+    <t>52 52 61 41 - FSInfo signature</t>
+  </si>
+  <si>
+    <t>72 72 41 61 - FSInfo struct signature</t>
+  </si>
+  <si>
+    <t>eb fb 01 00 - last known free cluster count (130.027)</t>
+  </si>
+  <si>
+    <t>11 00 00 00 - hint for next free cluster (0x11)</t>
   </si>
 </sst>
 </file>
@@ -2146,24 +2158,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2207,6 +2201,24 @@
     <xf numFmtId="49" fontId="18" fillId="43" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="43" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2569,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC70" sqref="AC70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2710,7 @@
       <c r="Y2" s="22"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="116" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="7"/>
@@ -2766,7 +2778,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
@@ -2832,7 +2844,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
@@ -2898,7 +2910,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
@@ -2964,7 +2976,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
@@ -3030,7 +3042,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="str">
@@ -3097,7 +3109,7 @@
       <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="str">
@@ -3130,7 +3142,7 @@
       <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="str">
@@ -3203,7 +3215,7 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="str">
@@ -3276,7 +3288,7 @@
       <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="str">
@@ -3345,7 +3357,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="str">
@@ -3380,7 +3392,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="str">
@@ -3459,7 +3471,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="str">
@@ -3525,7 +3537,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="12" t="str">
@@ -3557,7 +3569,7 @@
       <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="113" t="s">
         <v>307</v>
       </c>
       <c r="B17" s="7" t="str">
@@ -3634,7 +3646,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3709,7 +3721,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3784,7 +3796,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3859,7 +3871,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3944,7 +3956,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3961,10 +3973,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="52" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="15" t="s">
@@ -4019,7 +4031,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4094,7 +4106,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4169,7 +4181,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4244,7 +4256,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4316,7 +4328,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4388,7 +4400,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4460,7 +4472,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4532,7 +4544,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4604,7 +4616,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4676,7 +4688,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="12" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
@@ -4714,7 +4726,7 @@
       <c r="Y32" s="17"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4786,7 +4798,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4803,16 +4815,16 @@
         <v>147</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="26" t="s">
         <v>98</v>
       </c>
       <c r="K34" s="15" t="s">
@@ -4856,9 +4868,12 @@
       <c r="Y34" s="16" t="s">
         <v>148</v>
       </c>
+      <c r="AB34" s="25" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4928,9 +4943,12 @@
       <c r="Y35" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="AB35" s="4" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="12" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
@@ -4966,9 +4984,12 @@
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="17"/>
+      <c r="AB36" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4997,50 +5018,53 @@
       <c r="J37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="18" t="s">
         <v>80</v>
       </c>
       <c r="O37" s="14"/>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="R37" s="15" t="s">
+      <c r="R37" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="S37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="T37" s="15" t="s">
+      <c r="S37" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="U37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W37" s="15" t="s">
+      <c r="U37" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" s="49" t="s">
         <v>3</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="16" t="s">
         <v>153</v>
       </c>
+      <c r="AB37" s="50" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="72"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -5200,7 +5224,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="113" t="s">
         <v>319</v>
       </c>
       <c r="B41" s="56" t="str">
@@ -5274,7 +5298,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5346,7 +5370,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5418,7 +5442,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5490,7 +5514,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
+      <c r="A45" s="114"/>
       <c r="B45" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5562,7 +5586,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5634,7 +5658,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5706,7 +5730,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
+      <c r="A48" s="114"/>
       <c r="B48" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5778,7 +5802,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5850,7 +5874,7 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5922,7 +5946,7 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="114"/>
       <c r="B51" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -5994,7 +6018,7 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="114"/>
       <c r="B52" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -6066,7 +6090,7 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="114"/>
       <c r="B53" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -6138,7 +6162,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="114"/>
       <c r="B54" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -6210,7 +6234,7 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
+      <c r="A55" s="114"/>
       <c r="B55" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -6282,7 +6306,7 @@
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="57" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
@@ -6320,7 +6344,7 @@
       <c r="Y56" s="17"/>
     </row>
     <row r="57" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="58" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
@@ -6480,7 +6504,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="113" t="s">
         <v>318</v>
       </c>
       <c r="B60" s="7" t="str">
@@ -6524,7 +6548,7 @@
         <v>174</v>
       </c>
       <c r="O60" s="9"/>
-      <c r="P60" s="76" t="s">
+      <c r="P60" s="70" t="s">
         <v>65</v>
       </c>
       <c r="Q60" s="31" t="s">
@@ -6536,7 +6560,7 @@
       <c r="S60" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="T60" s="77" t="s">
+      <c r="T60" s="71" t="s">
         <v>63</v>
       </c>
       <c r="U60" s="39" t="s">
@@ -6545,7 +6569,7 @@
       <c r="V60" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="W60" s="78" t="s">
+      <c r="W60" s="72" t="s">
         <v>174</v>
       </c>
       <c r="X60" s="9"/>
@@ -6560,7 +6584,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
+      <c r="A61" s="114"/>
       <c r="B61" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6577,53 +6601,53 @@
         <v>175</v>
       </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="115" t="s">
+      <c r="G61" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="H61" s="116" t="s">
+      <c r="H61" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="116" t="s">
+      <c r="I61" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="J61" s="117" t="s">
+      <c r="J61" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="K61" s="87" t="s">
+      <c r="K61" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="L61" s="88" t="s">
+      <c r="L61" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="M61" s="88" t="s">
+      <c r="M61" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="N61" s="89" t="s">
+      <c r="N61" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="O61" s="85"/>
-      <c r="P61" s="90" t="s">
+      <c r="O61" s="79"/>
+      <c r="P61" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="Q61" s="91" t="s">
+      <c r="Q61" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="R61" s="91" t="s">
+      <c r="R61" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="S61" s="92" t="s">
+      <c r="S61" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="T61" s="93" t="s">
+      <c r="T61" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="U61" s="94" t="s">
+      <c r="U61" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="V61" s="94" t="s">
+      <c r="V61" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="W61" s="95" t="s">
+      <c r="W61" s="89" t="s">
         <v>174</v>
       </c>
       <c r="X61" s="14"/>
@@ -6638,7 +6662,7 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
+      <c r="A62" s="114"/>
       <c r="B62" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6655,53 +6679,53 @@
         <v>176</v>
       </c>
       <c r="F62" s="14"/>
-      <c r="G62" s="100" t="s">
+      <c r="G62" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="H62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="103" t="s">
+      <c r="H62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="L62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="99"/>
-      <c r="P62" s="103" t="s">
+      <c r="L62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="93"/>
+      <c r="P62" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="Q62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="103" t="s">
+      <c r="Q62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="U62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="110" t="s">
+      <c r="U62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="104" t="s">
         <v>3</v>
       </c>
       <c r="X62" s="14"/>
@@ -6716,7 +6740,7 @@
       </c>
     </row>
     <row r="63" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
+      <c r="A63" s="114"/>
       <c r="B63" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6733,53 +6757,53 @@
         <v>178</v>
       </c>
       <c r="F63" s="14"/>
-      <c r="G63" s="104" t="s">
+      <c r="G63" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="K63" s="79" t="s">
+      <c r="H63" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="L63" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="M63" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="N63" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="O63" s="84"/>
-      <c r="P63" s="111" t="s">
+      <c r="L63" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="N63" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="78"/>
+      <c r="P63" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="Q63" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="R63" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="S63" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="T63" s="111" t="s">
+      <c r="Q63" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="R63" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="S63" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="U63" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="V63" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="W63" s="114" t="s">
+      <c r="U63" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="V63" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="W63" s="108" t="s">
         <v>3</v>
       </c>
       <c r="X63" s="14"/>
@@ -6794,7 +6818,7 @@
       </c>
     </row>
     <row r="64" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
+      <c r="A64" s="114"/>
       <c r="B64" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6811,53 +6835,53 @@
         <v>179</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="105" t="s">
+      <c r="G64" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="H64" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="108" t="s">
+      <c r="H64" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="L64" s="106" t="s">
+      <c r="L64" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="M64" s="106" t="s">
+      <c r="M64" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="109" t="s">
+      <c r="N64" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="O64" s="86"/>
-      <c r="P64" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q64" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="R64" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="S64" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="T64" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="U64" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="V64" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="W64" s="98" t="s">
+      <c r="O64" s="80"/>
+      <c r="P64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="R64" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="S64" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="U64" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="V64" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="W64" s="92" t="s">
         <v>3</v>
       </c>
       <c r="X64" s="14"/>
@@ -6867,12 +6891,12 @@
       <c r="AA64" s="69">
         <v>4</v>
       </c>
-      <c r="AB64" s="118" t="s">
+      <c r="AB64" s="112" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
+      <c r="A65" s="114"/>
       <c r="B65" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6889,28 +6913,28 @@
         <v>180</v>
       </c>
       <c r="F65" s="14"/>
-      <c r="G65" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="L65" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="M65" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="N65" s="98" t="s">
+      <c r="G65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="92" t="s">
         <v>3</v>
       </c>
       <c r="O65" s="14"/>
@@ -6950,7 +6974,7 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="72"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="19" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
@@ -6989,12 +7013,12 @@
       <c r="AA66" s="69">
         <v>6</v>
       </c>
-      <c r="AB66" s="82" t="s">
+      <c r="AB66" s="76" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="113" t="s">
         <v>320</v>
       </c>
       <c r="B67" s="7" t="str">
@@ -7069,12 +7093,12 @@
       <c r="AA67" s="69">
         <v>7</v>
       </c>
-      <c r="AB67" s="83" t="s">
+      <c r="AB67" s="77" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
+      <c r="A68" s="114"/>
       <c r="B68" s="12" t="str">
         <f t="shared" ref="B68:B117" si="4">IF(E68="*","*",DEC2HEX(HEX2DEC(C68)/4,4))</f>
         <v>0106</v>
@@ -7152,7 +7176,7 @@
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
+      <c r="A69" s="114"/>
       <c r="B69" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7228,7 +7252,7 @@
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+      <c r="A70" s="114"/>
       <c r="B70" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7304,7 +7328,7 @@
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+      <c r="A71" s="114"/>
       <c r="B71" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7380,7 +7404,7 @@
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+      <c r="A72" s="114"/>
       <c r="B72" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7456,7 +7480,7 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="72"/>
+      <c r="A73" s="115"/>
       <c r="B73" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -7497,7 +7521,7 @@
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="113" t="s">
         <v>321</v>
       </c>
       <c r="B74" s="7" t="str">
@@ -7574,7 +7598,7 @@
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
+      <c r="A75" s="114"/>
       <c r="B75" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7649,7 +7673,7 @@
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
+      <c r="A76" s="114"/>
       <c r="B76" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7724,7 +7748,7 @@
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
+      <c r="A77" s="114"/>
       <c r="B77" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7799,7 +7823,7 @@
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
+      <c r="A78" s="114"/>
       <c r="B78" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7871,7 +7895,7 @@
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+      <c r="A79" s="114"/>
       <c r="B79" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7943,7 +7967,7 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
+      <c r="A80" s="114"/>
       <c r="B80" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -8015,7 +8039,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
+      <c r="A81" s="114"/>
       <c r="B81" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -8087,7 +8111,7 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
+      <c r="A82" s="114"/>
       <c r="B82" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -8159,7 +8183,7 @@
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="72"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -8197,7 +8221,7 @@
       <c r="Y83" s="22"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="70" t="s">
+      <c r="A84" s="113" t="s">
         <v>324</v>
       </c>
       <c r="B84" s="7" t="str">
@@ -8271,7 +8295,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
+      <c r="A85" s="114"/>
       <c r="B85" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0205</v>
@@ -8343,7 +8367,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
+      <c r="A86" s="114"/>
       <c r="B86" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0205</v>
@@ -8415,7 +8439,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="72"/>
+      <c r="A87" s="115"/>
       <c r="B87" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -8453,7 +8477,7 @@
       <c r="Y87" s="22"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="113" t="s">
         <v>322</v>
       </c>
       <c r="B88" s="7" t="str">
@@ -8527,7 +8551,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
+      <c r="A89" s="114"/>
       <c r="B89" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8599,7 +8623,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8671,7 +8695,7 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
+      <c r="A91" s="114"/>
       <c r="B91" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8743,7 +8767,7 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
+      <c r="A92" s="114"/>
       <c r="B92" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8815,7 +8839,7 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
+      <c r="A93" s="114"/>
       <c r="B93" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8887,7 +8911,7 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
+      <c r="A94" s="114"/>
       <c r="B94" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8959,7 +8983,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
+      <c r="A95" s="114"/>
       <c r="B95" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -9031,7 +9055,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
+      <c r="A96" s="114"/>
       <c r="B96" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -9103,7 +9127,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="72"/>
+      <c r="A97" s="115"/>
       <c r="B97" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -9141,7 +9165,7 @@
       <c r="Y97" s="22"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="113" t="s">
         <v>323</v>
       </c>
       <c r="B98" s="7" t="str">
@@ -9215,7 +9239,7 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
+      <c r="A99" s="114"/>
       <c r="B99" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9287,7 +9311,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
+      <c r="A100" s="114"/>
       <c r="B100" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9359,7 +9383,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
+      <c r="A101" s="114"/>
       <c r="B101" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9431,7 +9455,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
+      <c r="A102" s="114"/>
       <c r="B102" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9503,7 +9527,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="72"/>
+      <c r="A103" s="115"/>
       <c r="B103" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -9541,7 +9565,7 @@
       <c r="Y103" s="22"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="70" t="s">
+      <c r="A104" s="113" t="s">
         <v>325</v>
       </c>
       <c r="B104" s="7" t="str">
@@ -9615,7 +9639,7 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="71"/>
+      <c r="A105" s="114"/>
       <c r="B105" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9687,7 +9711,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
+      <c r="A106" s="114"/>
       <c r="B106" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9759,7 +9783,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="71"/>
+      <c r="A107" s="114"/>
       <c r="B107" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9831,7 +9855,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="71"/>
+      <c r="A108" s="114"/>
       <c r="B108" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9903,7 +9927,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
+      <c r="A109" s="114"/>
       <c r="B109" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9975,7 +9999,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
+      <c r="A110" s="114"/>
       <c r="B110" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -10047,7 +10071,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="72"/>
+      <c r="A111" s="115"/>
       <c r="B111" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -10085,7 +10109,7 @@
       <c r="Y111" s="22"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="113" t="s">
         <v>327</v>
       </c>
       <c r="B112" s="7" t="str">
@@ -10159,7 +10183,7 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="71"/>
+      <c r="A113" s="114"/>
       <c r="B113" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0209</v>
@@ -10231,7 +10255,7 @@
       </c>
     </row>
     <row r="114" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="72"/>
+      <c r="A114" s="115"/>
       <c r="B114" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -10269,7 +10293,7 @@
       <c r="Y114" s="22"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="70" t="s">
+      <c r="A115" s="113" t="s">
         <v>328</v>
       </c>
       <c r="B115" s="7" t="str">
@@ -10343,7 +10367,7 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="71"/>
+      <c r="A116" s="114"/>
       <c r="B116" s="12" t="str">
         <f t="shared" si="4"/>
         <v>020A</v>
@@ -10415,7 +10439,7 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="71"/>
+      <c r="A117" s="114"/>
       <c r="B117" s="12" t="str">
         <f t="shared" si="4"/>
         <v>020A</v>
@@ -10487,7 +10511,7 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="71"/>
+      <c r="A118" s="114"/>
       <c r="B118" s="12" t="s">
         <v>326</v>
       </c>
@@ -10556,7 +10580,7 @@
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
+      <c r="A119" s="114"/>
       <c r="B119" s="12" t="str">
         <f t="shared" ref="B119:B121" si="7">IF(E119="*","*",DEC2HEX(HEX2DEC(C119)/4,4))</f>
         <v>020A</v>
@@ -10628,7 +10652,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
+      <c r="A120" s="114"/>
       <c r="B120" s="12" t="str">
         <f t="shared" si="7"/>
         <v>020B</v>
@@ -10700,7 +10724,7 @@
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="71"/>
+      <c r="A121" s="114"/>
       <c r="B121" s="12" t="str">
         <f t="shared" si="7"/>
         <v>020B</v>
@@ -10772,7 +10796,7 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="71"/>
+      <c r="A122" s="114"/>
       <c r="B122" s="12" t="s">
         <v>326</v>
       </c>
@@ -10841,7 +10865,7 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" s="71"/>
+      <c r="A123" s="114"/>
       <c r="B123" s="12" t="str">
         <f t="shared" ref="B123:B125" si="10">IF(E123="*","*",DEC2HEX(HEX2DEC(C123)/4,4))</f>
         <v>020B</v>
@@ -10913,7 +10937,7 @@
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="71"/>
+      <c r="A124" s="114"/>
       <c r="B124" s="12" t="str">
         <f t="shared" si="10"/>
         <v>020C</v>
@@ -10985,7 +11009,7 @@
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="71"/>
+      <c r="A125" s="114"/>
       <c r="B125" s="12" t="str">
         <f t="shared" si="10"/>
         <v>020C</v>
@@ -11057,7 +11081,7 @@
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="71"/>
+      <c r="A126" s="114"/>
       <c r="B126" s="12" t="s">
         <v>326</v>
       </c>
@@ -11126,7 +11150,7 @@
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="71"/>
+      <c r="A127" s="114"/>
       <c r="B127" s="12" t="str">
         <f t="shared" ref="B127:B129" si="13">IF(E127="*","*",DEC2HEX(HEX2DEC(C127)/4,4))</f>
         <v>0213</v>
@@ -11198,7 +11222,7 @@
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A128" s="71"/>
+      <c r="A128" s="114"/>
       <c r="B128" s="12" t="str">
         <f t="shared" si="13"/>
         <v>0213</v>
@@ -11270,7 +11294,7 @@
       </c>
     </row>
     <row r="129" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="72"/>
+      <c r="A129" s="115"/>
       <c r="B129" s="19" t="str">
         <f t="shared" si="13"/>
         <v>*</v>

--- a/doc/image2.xlsx
+++ b/doc/image2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE880E3-085D-4C54-AB0F-6D4F61CF1E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B06FCA1-1A75-4E8C-A894-6913D46BD2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="354">
   <si>
     <t>00000000</t>
   </si>
@@ -962,9 +962,6 @@
     <t>04 - sectors per cluster: 4</t>
   </si>
   <si>
-    <t>20 - reserved sectors: 32</t>
-  </si>
-  <si>
     <t>02 - number of FATs</t>
   </si>
   <si>
@@ -980,9 +977,6 @@
     <t>01 00 - Sector of FSINFO: 1</t>
   </si>
   <si>
-    <t>4f .. 20 - Label: FORTUNA__</t>
-  </si>
-  <si>
     <t>55 aa - boot sector signature</t>
   </si>
   <si>
@@ -1086,6 +1080,18 @@
   </si>
   <si>
     <t>11 00 00 00 - hint for next free cluster (0x11)</t>
+  </si>
+  <si>
+    <t>FSINFO</t>
+  </si>
+  <si>
+    <t>55 aa - FSInfo sector signature</t>
+  </si>
+  <si>
+    <t>4f .. 20 - Label: FORTUNA____</t>
+  </si>
+  <si>
+    <t>20 00 - reserved sectors: 32</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,7 +2069,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2131,7 +2143,6 @@
     <xf numFmtId="49" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2201,6 +2212,9 @@
     <xf numFmtId="49" fontId="18" fillId="43" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="43" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="44" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,13 +2595,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="68" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
     <col min="3" max="4" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
@@ -2608,7 +2623,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -2677,7 +2692,7 @@
       <c r="Y1" s="23"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="19" t="s">
         <v>306</v>
       </c>
@@ -2710,7 +2725,7 @@
       <c r="Y2" s="22"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="118" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="7"/>
@@ -2778,7 +2793,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="str">
@@ -2844,7 +2859,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="str">
@@ -2910,7 +2925,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
@@ -2976,7 +2991,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="str">
@@ -3042,7 +3057,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="str">
@@ -3109,7 +3124,7 @@
       <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="str">
@@ -3142,7 +3157,7 @@
       <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="str">
@@ -3215,7 +3230,7 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="str">
@@ -3288,7 +3303,7 @@
       <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="str">
@@ -3357,7 +3372,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="str">
@@ -3392,7 +3407,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="str">
@@ -3471,7 +3486,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="str">
@@ -3537,7 +3552,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="12" t="str">
@@ -3569,7 +3584,7 @@
       <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="115" t="s">
         <v>307</v>
       </c>
       <c r="B17" s="7" t="str">
@@ -3634,7 +3649,7 @@
       <c r="V17" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="47" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="9"/>
@@ -3646,7 +3661,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3721,7 +3736,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3792,11 +3807,11 @@
         <v>11</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3867,11 +3882,11 @@
         <v>11</v>
       </c>
       <c r="AB20" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -3942,7 +3957,7 @@
         <v>99</v>
       </c>
       <c r="AB21" s="50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD21" s="2">
         <v>522240</v>
@@ -3956,7 +3971,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4027,11 +4042,11 @@
         <v>107</v>
       </c>
       <c r="AB22" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4102,11 +4117,11 @@
         <v>113</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4177,11 +4192,11 @@
         <v>120</v>
       </c>
       <c r="AB24" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4252,11 +4267,11 @@
         <v>127</v>
       </c>
       <c r="AB25" s="54" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4326,9 +4341,12 @@
       <c r="Y26" s="16" t="s">
         <v>130</v>
       </c>
+      <c r="AB26" s="114" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4400,7 +4418,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4472,7 +4490,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4544,7 +4562,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4616,7 +4634,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4688,7 +4706,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="12" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
@@ -4725,8 +4743,8 @@
       <c r="X32" s="14"/>
       <c r="Y32" s="17"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
+    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="117"/>
       <c r="B33" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
@@ -4786,10 +4804,10 @@
       <c r="U33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="V33" s="15" t="s">
+      <c r="V33" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="W33" s="15" t="s">
+      <c r="W33" s="112" t="s">
         <v>69</v>
       </c>
       <c r="X33" s="14"/>
@@ -4798,83 +4816,85 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="12" t="str">
+      <c r="A34" s="115" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="55" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="7" t="str">
         <f t="shared" si="2"/>
         <v>0001</v>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="7" t="str">
         <f t="shared" si="3"/>
         <v>0801</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="26" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="V34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="16" t="s">
+      <c r="K34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="11" t="s">
         <v>148</v>
       </c>
       <c r="AB34" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="12" t="str">
+      <c r="A35" s="116"/>
+      <c r="B35" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -4944,12 +4964,12 @@
         <v>11</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="12" t="str">
+      <c r="A36" s="116"/>
+      <c r="B36" s="56" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
@@ -4984,13 +5004,13 @@
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="17"/>
-      <c r="AB36" s="2" t="s">
-        <v>350</v>
+      <c r="AB36" s="54" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="12" t="str">
+      <c r="A37" s="116"/>
+      <c r="B37" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -5060,12 +5080,12 @@
         <v>153</v>
       </c>
       <c r="AB37" s="50" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
-      <c r="B38" s="19" t="str">
+      <c r="A38" s="117"/>
+      <c r="B38" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -5124,18 +5144,18 @@
       <c r="U38" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="V38" s="55" t="s">
+      <c r="V38" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="W38" s="55" t="s">
+      <c r="W38" s="113" t="s">
         <v>69</v>
       </c>
       <c r="X38" s="21"/>
       <c r="Y38" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AB38" s="40" t="s">
-        <v>317</v>
+      <c r="AB38" s="114" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -5224,10 +5244,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="113" t="s">
-        <v>319</v>
-      </c>
-      <c r="B41" s="56" t="str">
+      <c r="A41" s="115" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="55" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5298,8 +5318,8 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="57" t="str">
+      <c r="A42" s="116"/>
+      <c r="B42" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5370,8 +5390,8 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="57" t="str">
+      <c r="A43" s="116"/>
+      <c r="B43" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5442,8 +5462,8 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="57" t="str">
+      <c r="A44" s="116"/>
+      <c r="B44" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5514,8 +5534,8 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="57" t="str">
+      <c r="A45" s="116"/>
+      <c r="B45" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5586,8 +5606,8 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="57" t="str">
+      <c r="A46" s="116"/>
+      <c r="B46" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5658,8 +5678,8 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="57" t="str">
+      <c r="A47" s="116"/>
+      <c r="B47" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5730,8 +5750,8 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="57" t="str">
+      <c r="A48" s="116"/>
+      <c r="B48" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5802,8 +5822,8 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
-      <c r="B49" s="57" t="str">
+      <c r="A49" s="116"/>
+      <c r="B49" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5874,8 +5894,8 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="114"/>
-      <c r="B50" s="57" t="str">
+      <c r="A50" s="116"/>
+      <c r="B50" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -5946,8 +5966,8 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="114"/>
-      <c r="B51" s="57" t="str">
+      <c r="A51" s="116"/>
+      <c r="B51" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -6018,8 +6038,8 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="57" t="str">
+      <c r="A52" s="116"/>
+      <c r="B52" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -6090,8 +6110,8 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="57" t="str">
+      <c r="A53" s="116"/>
+      <c r="B53" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -6162,8 +6182,8 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="57" t="str">
+      <c r="A54" s="116"/>
+      <c r="B54" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -6234,8 +6254,8 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="57" t="str">
+      <c r="A55" s="116"/>
+      <c r="B55" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -6306,8 +6326,8 @@
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="57" t="str">
+      <c r="A56" s="116"/>
+      <c r="B56" s="56" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
@@ -6344,8 +6364,8 @@
       <c r="Y56" s="17"/>
     </row>
     <row r="57" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="58" t="str">
+      <c r="A57" s="117"/>
+      <c r="B57" s="57" t="str">
         <f t="shared" si="1"/>
         <v>0001</v>
       </c>
@@ -6500,12 +6520,12 @@
         <v>54</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="113" t="s">
-        <v>318</v>
+      <c r="A60" s="115" t="s">
+        <v>316</v>
       </c>
       <c r="B60" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6532,23 +6552,23 @@
       <c r="I60" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="62" t="s">
+      <c r="J60" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="K60" s="63" t="s">
+      <c r="K60" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="L60" s="64" t="s">
+      <c r="L60" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="M60" s="64" t="s">
+      <c r="M60" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="N60" s="65" t="s">
+      <c r="N60" s="64" t="s">
         <v>174</v>
       </c>
       <c r="O60" s="9"/>
-      <c r="P60" s="70" t="s">
+      <c r="P60" s="69" t="s">
         <v>65</v>
       </c>
       <c r="Q60" s="31" t="s">
@@ -6560,7 +6580,7 @@
       <c r="S60" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="T60" s="71" t="s">
+      <c r="T60" s="70" t="s">
         <v>63</v>
       </c>
       <c r="U60" s="39" t="s">
@@ -6569,22 +6589,22 @@
       <c r="V60" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="W60" s="72" t="s">
+      <c r="W60" s="71" t="s">
         <v>174</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA60" s="69">
+      <c r="AA60" s="68">
         <v>0</v>
       </c>
       <c r="AB60" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6601,68 +6621,68 @@
         <v>175</v>
       </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="109" t="s">
+      <c r="G61" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="H61" s="110" t="s">
+      <c r="H61" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="110" t="s">
+      <c r="I61" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="J61" s="111" t="s">
+      <c r="J61" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="K61" s="81" t="s">
+      <c r="K61" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="L61" s="82" t="s">
+      <c r="L61" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="M61" s="82" t="s">
+      <c r="M61" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="N61" s="83" t="s">
+      <c r="N61" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O61" s="79"/>
-      <c r="P61" s="84" t="s">
+      <c r="O61" s="78"/>
+      <c r="P61" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="Q61" s="85" t="s">
+      <c r="Q61" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="R61" s="85" t="s">
+      <c r="R61" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="S61" s="86" t="s">
+      <c r="S61" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="T61" s="87" t="s">
+      <c r="T61" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="U61" s="88" t="s">
+      <c r="U61" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="V61" s="88" t="s">
+      <c r="V61" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="W61" s="89" t="s">
+      <c r="W61" s="88" t="s">
         <v>174</v>
       </c>
       <c r="X61" s="14"/>
       <c r="Y61" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA61" s="69">
+      <c r="AA61" s="68">
         <v>1</v>
       </c>
-      <c r="AB61" s="66" t="s">
-        <v>335</v>
+      <c r="AB61" s="65" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
+      <c r="A62" s="116"/>
       <c r="B62" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6679,68 +6699,68 @@
         <v>176</v>
       </c>
       <c r="F62" s="14"/>
-      <c r="G62" s="94" t="s">
+      <c r="G62" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="H62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="97" t="s">
+      <c r="H62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="L62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="93"/>
-      <c r="P62" s="97" t="s">
+      <c r="L62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="92"/>
+      <c r="P62" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="Q62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="97" t="s">
+      <c r="Q62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="U62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="104" t="s">
+      <c r="U62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="103" t="s">
         <v>3</v>
       </c>
       <c r="X62" s="14"/>
       <c r="Y62" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA62" s="69">
+      <c r="AA62" s="68">
         <v>2</v>
       </c>
       <c r="AB62" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
+      <c r="A63" s="116"/>
       <c r="B63" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6757,68 +6777,68 @@
         <v>178</v>
       </c>
       <c r="F63" s="14"/>
-      <c r="G63" s="98" t="s">
+      <c r="G63" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="K63" s="73" t="s">
+      <c r="H63" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="L63" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="M63" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="N63" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="O63" s="78"/>
-      <c r="P63" s="105" t="s">
+      <c r="L63" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="N63" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="77"/>
+      <c r="P63" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="Q63" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="R63" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="S63" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="T63" s="105" t="s">
+      <c r="Q63" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="R63" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="S63" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="U63" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="V63" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="W63" s="108" t="s">
+      <c r="U63" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="V63" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="W63" s="107" t="s">
         <v>3</v>
       </c>
       <c r="X63" s="14"/>
       <c r="Y63" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA63" s="69">
+      <c r="AA63" s="68">
         <v>3</v>
       </c>
       <c r="AB63" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
+      <c r="A64" s="116"/>
       <c r="B64" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6835,68 +6855,68 @@
         <v>179</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="99" t="s">
+      <c r="G64" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="H64" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="102" t="s">
+      <c r="H64" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="L64" s="100" t="s">
+      <c r="L64" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="M64" s="100" t="s">
+      <c r="M64" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="103" t="s">
+      <c r="N64" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="O64" s="80"/>
-      <c r="P64" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q64" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="R64" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="S64" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="T64" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="U64" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="V64" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="W64" s="92" t="s">
+      <c r="O64" s="79"/>
+      <c r="P64" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="R64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="S64" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="U64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="V64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="W64" s="91" t="s">
         <v>3</v>
       </c>
       <c r="X64" s="14"/>
       <c r="Y64" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA64" s="69">
+      <c r="AA64" s="68">
         <v>4</v>
       </c>
-      <c r="AB64" s="112" t="s">
-        <v>336</v>
+      <c r="AB64" s="111" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="114"/>
+      <c r="A65" s="116"/>
       <c r="B65" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0008</v>
@@ -6913,68 +6933,68 @@
         <v>180</v>
       </c>
       <c r="F65" s="14"/>
-      <c r="G65" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="L65" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="M65" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="N65" s="92" t="s">
+      <c r="G65" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="91" t="s">
         <v>3</v>
       </c>
       <c r="O65" s="14"/>
-      <c r="P65" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="R65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="S65" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="T65" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="U65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="V65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="W65" s="61" t="s">
+      <c r="P65" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="R65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="S65" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T65" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="U65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="V65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="W65" s="60" t="s">
         <v>3</v>
       </c>
       <c r="X65" s="14"/>
       <c r="Y65" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA65" s="69">
+      <c r="AA65" s="68">
         <v>5</v>
       </c>
       <c r="AB65" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="19" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
@@ -7010,16 +7030,16 @@
       <c r="W66" s="21"/>
       <c r="X66" s="21"/>
       <c r="Y66" s="22"/>
-      <c r="AA66" s="69">
+      <c r="AA66" s="68">
         <v>6</v>
       </c>
-      <c r="AB66" s="76" t="s">
-        <v>333</v>
+      <c r="AB66" s="75" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="113" t="s">
-        <v>320</v>
+      <c r="A67" s="115" t="s">
+        <v>318</v>
       </c>
       <c r="B67" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7090,15 +7110,15 @@
       <c r="Y67" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA67" s="69">
+      <c r="AA67" s="68">
         <v>7</v>
       </c>
-      <c r="AB67" s="77" t="s">
-        <v>330</v>
+      <c r="AB67" s="76" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="114"/>
+      <c r="A68" s="116"/>
       <c r="B68" s="12" t="str">
         <f t="shared" ref="B68:B117" si="4">IF(E68="*","*",DEC2HEX(HEX2DEC(C68)/4,4))</f>
         <v>0106</v>
@@ -7168,15 +7188,15 @@
       <c r="Y68" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA68" s="69">
+      <c r="AA68" s="68">
         <v>8</v>
       </c>
       <c r="AB68" s="50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="114"/>
+      <c r="A69" s="116"/>
       <c r="B69" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7246,13 +7266,13 @@
       <c r="Y69" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA69" s="69"/>
+      <c r="AA69" s="68"/>
       <c r="AB69" s="50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="114"/>
+      <c r="A70" s="116"/>
       <c r="B70" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7322,13 +7342,13 @@
       <c r="Y70" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA70" s="69"/>
+      <c r="AA70" s="68"/>
       <c r="AB70" s="50" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="114"/>
+      <c r="A71" s="116"/>
       <c r="B71" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7398,13 +7418,13 @@
       <c r="Y71" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA71" s="69"/>
+      <c r="AA71" s="68"/>
       <c r="AB71" s="50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="114"/>
+      <c r="A72" s="116"/>
       <c r="B72" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0106</v>
@@ -7474,13 +7494,13 @@
       <c r="Y72" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA72" s="69"/>
+      <c r="AA72" s="68"/>
       <c r="AB72" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -7517,12 +7537,12 @@
       <c r="X73" s="21"/>
       <c r="Y73" s="22"/>
       <c r="AB73" s="50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="113" t="s">
-        <v>321</v>
+      <c r="A74" s="115" t="s">
+        <v>319</v>
       </c>
       <c r="B74" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7594,11 +7614,11 @@
         <v>189</v>
       </c>
       <c r="AB74" s="50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="114"/>
+      <c r="A75" s="116"/>
       <c r="B75" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7669,11 +7689,11 @@
         <v>193</v>
       </c>
       <c r="AB75" s="50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="114"/>
+      <c r="A76" s="116"/>
       <c r="B76" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7744,11 +7764,11 @@
         <v>196</v>
       </c>
       <c r="AB76" s="50" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="114"/>
+      <c r="A77" s="116"/>
       <c r="B77" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7819,11 +7839,11 @@
         <v>199</v>
       </c>
       <c r="AB77" s="50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="114"/>
+      <c r="A78" s="116"/>
       <c r="B78" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7895,7 +7915,7 @@
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="114"/>
+      <c r="A79" s="116"/>
       <c r="B79" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -7967,7 +7987,7 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="114"/>
+      <c r="A80" s="116"/>
       <c r="B80" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -8039,7 +8059,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="114"/>
+      <c r="A81" s="116"/>
       <c r="B81" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -8111,7 +8131,7 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="114"/>
+      <c r="A82" s="116"/>
       <c r="B82" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0204</v>
@@ -8183,7 +8203,7 @@
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="115"/>
+      <c r="A83" s="117"/>
       <c r="B83" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -8221,8 +8241,8 @@
       <c r="Y83" s="22"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="113" t="s">
-        <v>324</v>
+      <c r="A84" s="115" t="s">
+        <v>322</v>
       </c>
       <c r="B84" s="7" t="str">
         <f>IF(E84="*","*",DEC2HEX(HEX2DEC(C84)/4,4))</f>
@@ -8295,7 +8315,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="114"/>
+      <c r="A85" s="116"/>
       <c r="B85" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0205</v>
@@ -8367,7 +8387,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="114"/>
+      <c r="A86" s="116"/>
       <c r="B86" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0205</v>
@@ -8439,7 +8459,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="115"/>
+      <c r="A87" s="117"/>
       <c r="B87" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -8477,8 +8497,8 @@
       <c r="Y87" s="22"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="113" t="s">
-        <v>322</v>
+      <c r="A88" s="115" t="s">
+        <v>320</v>
       </c>
       <c r="B88" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8551,7 +8571,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="114"/>
+      <c r="A89" s="116"/>
       <c r="B89" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8623,7 +8643,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
+      <c r="A90" s="116"/>
       <c r="B90" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8695,7 +8715,7 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="114"/>
+      <c r="A91" s="116"/>
       <c r="B91" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8767,7 +8787,7 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
+      <c r="A92" s="116"/>
       <c r="B92" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8839,7 +8859,7 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="114"/>
+      <c r="A93" s="116"/>
       <c r="B93" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8911,7 +8931,7 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="114"/>
+      <c r="A94" s="116"/>
       <c r="B94" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -8983,7 +9003,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="114"/>
+      <c r="A95" s="116"/>
       <c r="B95" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -9055,7 +9075,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="114"/>
+      <c r="A96" s="116"/>
       <c r="B96" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0206</v>
@@ -9127,7 +9147,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="115"/>
+      <c r="A97" s="117"/>
       <c r="B97" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -9165,8 +9185,8 @@
       <c r="Y97" s="22"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="113" t="s">
-        <v>323</v>
+      <c r="A98" s="115" t="s">
+        <v>321</v>
       </c>
       <c r="B98" s="7" t="str">
         <f t="shared" si="4"/>
@@ -9239,7 +9259,7 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="114"/>
+      <c r="A99" s="116"/>
       <c r="B99" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9311,7 +9331,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="114"/>
+      <c r="A100" s="116"/>
       <c r="B100" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9383,7 +9403,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="114"/>
+      <c r="A101" s="116"/>
       <c r="B101" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9455,7 +9475,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="114"/>
+      <c r="A102" s="116"/>
       <c r="B102" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0207</v>
@@ -9527,7 +9547,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="115"/>
+      <c r="A103" s="117"/>
       <c r="B103" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -9565,8 +9585,8 @@
       <c r="Y103" s="22"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="113" t="s">
-        <v>325</v>
+      <c r="A104" s="115" t="s">
+        <v>323</v>
       </c>
       <c r="B104" s="7" t="str">
         <f t="shared" si="4"/>
@@ -9639,7 +9659,7 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="114"/>
+      <c r="A105" s="116"/>
       <c r="B105" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9711,7 +9731,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="114"/>
+      <c r="A106" s="116"/>
       <c r="B106" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9783,7 +9803,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="114"/>
+      <c r="A107" s="116"/>
       <c r="B107" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9855,7 +9875,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="114"/>
+      <c r="A108" s="116"/>
       <c r="B108" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9927,7 +9947,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="114"/>
+      <c r="A109" s="116"/>
       <c r="B109" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -9999,7 +10019,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="114"/>
+      <c r="A110" s="116"/>
       <c r="B110" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0208</v>
@@ -10071,7 +10091,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="115"/>
+      <c r="A111" s="117"/>
       <c r="B111" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -10109,8 +10129,8 @@
       <c r="Y111" s="22"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="113" t="s">
-        <v>327</v>
+      <c r="A112" s="115" t="s">
+        <v>325</v>
       </c>
       <c r="B112" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10183,7 +10203,7 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="114"/>
+      <c r="A113" s="116"/>
       <c r="B113" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0209</v>
@@ -10255,7 +10275,7 @@
       </c>
     </row>
     <row r="114" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="115"/>
+      <c r="A114" s="117"/>
       <c r="B114" s="19" t="str">
         <f t="shared" si="4"/>
         <v>*</v>
@@ -10293,8 +10313,8 @@
       <c r="Y114" s="22"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="113" t="s">
-        <v>328</v>
+      <c r="A115" s="115" t="s">
+        <v>326</v>
       </c>
       <c r="B115" s="7" t="str">
         <f t="shared" si="4"/>
@@ -10367,7 +10387,7 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="114"/>
+      <c r="A116" s="116"/>
       <c r="B116" s="12" t="str">
         <f t="shared" si="4"/>
         <v>020A</v>
@@ -10439,7 +10459,7 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="114"/>
+      <c r="A117" s="116"/>
       <c r="B117" s="12" t="str">
         <f t="shared" si="4"/>
         <v>020A</v>
@@ -10511,76 +10531,76 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="114"/>
+      <c r="A118" s="116"/>
       <c r="B118" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O118" s="14"/>
       <c r="P118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X118" s="14"/>
       <c r="Y118" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="114"/>
+      <c r="A119" s="116"/>
       <c r="B119" s="12" t="str">
         <f t="shared" ref="B119:B121" si="7">IF(E119="*","*",DEC2HEX(HEX2DEC(C119)/4,4))</f>
         <v>020A</v>
@@ -10652,7 +10672,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="114"/>
+      <c r="A120" s="116"/>
       <c r="B120" s="12" t="str">
         <f t="shared" si="7"/>
         <v>020B</v>
@@ -10724,7 +10744,7 @@
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="114"/>
+      <c r="A121" s="116"/>
       <c r="B121" s="12" t="str">
         <f t="shared" si="7"/>
         <v>020B</v>
@@ -10796,76 +10816,76 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="114"/>
+      <c r="A122" s="116"/>
       <c r="B122" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O122" s="14"/>
       <c r="P122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X122" s="14"/>
       <c r="Y122" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" s="114"/>
+      <c r="A123" s="116"/>
       <c r="B123" s="12" t="str">
         <f t="shared" ref="B123:B125" si="10">IF(E123="*","*",DEC2HEX(HEX2DEC(C123)/4,4))</f>
         <v>020B</v>
@@ -10937,7 +10957,7 @@
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="114"/>
+      <c r="A124" s="116"/>
       <c r="B124" s="12" t="str">
         <f t="shared" si="10"/>
         <v>020C</v>
@@ -11009,7 +11029,7 @@
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="114"/>
+      <c r="A125" s="116"/>
       <c r="B125" s="12" t="str">
         <f t="shared" si="10"/>
         <v>020C</v>
@@ -11081,76 +11101,76 @@
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="114"/>
+      <c r="A126" s="116"/>
       <c r="B126" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O126" s="14"/>
       <c r="P126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X126" s="14"/>
       <c r="Y126" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="114"/>
+      <c r="A127" s="116"/>
       <c r="B127" s="12" t="str">
         <f t="shared" ref="B127:B129" si="13">IF(E127="*","*",DEC2HEX(HEX2DEC(C127)/4,4))</f>
         <v>0213</v>
@@ -11222,7 +11242,7 @@
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A128" s="114"/>
+      <c r="A128" s="116"/>
       <c r="B128" s="12" t="str">
         <f t="shared" si="13"/>
         <v>0213</v>
@@ -11294,7 +11314,7 @@
       </c>
     </row>
     <row r="129" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="115"/>
+      <c r="A129" s="117"/>
       <c r="B129" s="19" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
@@ -11335,12 +11355,13 @@
       <c r="E130" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A17:A38"/>
     <mergeCell ref="A41:A57"/>
     <mergeCell ref="A60:A66"/>
     <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A17:A33"/>
     <mergeCell ref="A115:A129"/>
     <mergeCell ref="A74:A83"/>
     <mergeCell ref="A84:A87"/>
